--- a/exemplos_tutorial_quimica_nova/exemplo2.xlsx
+++ b/exemplos_tutorial_quimica_nova/exemplo2.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documentos\UFSCar\TCC\playlist23\exemplos_tutorial_quimica_nova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C360EAA-C4F4-4E5F-9AE1-3DE4A90D5B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41C6A22-81A2-4858-B7B8-26E9CFA5E6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="32000" iterateDelta="9.9999999999999998E-13"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="32000" iterateDelta="9.9999999999999998E-13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>v1</t>
   </si>
@@ -55,6 +63,27 @@
   </si>
   <si>
     <t>Distribuição</t>
+  </si>
+  <si>
+    <t>1+234</t>
+  </si>
+  <si>
+    <t>2+134</t>
+  </si>
+  <si>
+    <t>3+124</t>
+  </si>
+  <si>
+    <t>4+123</t>
+  </si>
+  <si>
+    <t>12+34</t>
+  </si>
+  <si>
+    <t>13+24</t>
+  </si>
+  <si>
+    <t>14+23</t>
   </si>
 </sst>
 </file>
@@ -372,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +412,7 @@
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +443,29 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,8 +496,36 @@
       <c r="J2">
         <v>2.02</v>
       </c>
+      <c r="K2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>C2</f>
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <f>E2</f>
+        <v>-1</v>
+      </c>
+      <c r="N2">
+        <f>G2</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>K2*L2</f>
+        <v>-1</v>
+      </c>
+      <c r="P2">
+        <f>K2*M2</f>
+        <v>-1</v>
+      </c>
+      <c r="Q2">
+        <f>K2*N2</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -478,8 +556,36 @@
       <c r="J3">
         <v>1.29</v>
       </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K12" si="0">A3</f>
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L12" si="1">C3</f>
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M12" si="2">E3</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N12" si="3">G3</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O12" si="4">K3*L3</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="5">K3*M3</f>
+        <v>-1</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q12" si="6">K3*N3</f>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -510,8 +616,36 @@
       <c r="J4">
         <v>1.62</v>
       </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -542,8 +676,36 @@
       <c r="J5">
         <v>2.5099999999999998</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1</v>
       </c>
@@ -574,8 +736,36 @@
       <c r="J6">
         <v>4.76</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1</v>
       </c>
@@ -606,8 +796,36 @@
       <c r="J7">
         <v>1.79</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -638,8 +856,36 @@
       <c r="J8">
         <v>3.23</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -670,8 +916,36 @@
       <c r="J9">
         <v>3.61</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -702,8 +976,36 @@
       <c r="J10">
         <v>1.56</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -734,8 +1036,36 @@
       <c r="J11">
         <v>1.35</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -765,6 +1095,34 @@
       </c>
       <c r="J12">
         <v>1.76</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/exemplos_tutorial_quimica_nova/exemplo2.xlsx
+++ b/exemplos_tutorial_quimica_nova/exemplo2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documentos\UFSCar\TCC\playlist23\exemplos_tutorial_quimica_nova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documentos\UFSCar\TCC\playlist24\exemplos_tutorial_quimica_nova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41C6A22-81A2-4858-B7B8-26E9CFA5E6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E8150-8548-442F-8EB3-872E0777B3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M14" sqref="M13:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
